--- a/数据整理/stocks/A股/创业板/300855-图南股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300855-图南股份.xlsx
@@ -1,138 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>110005</t>
-  </si>
-  <si>
-    <t>010375</t>
-  </si>
-  <si>
-    <t>000354</t>
-  </si>
-  <si>
-    <t>010376</t>
-  </si>
-  <si>
-    <t>易方达积极成长混合</t>
-  </si>
-  <si>
-    <t>国金鑫悦经济新动能混合A</t>
-  </si>
-  <si>
-    <t>长盛城镇化主题混合</t>
-  </si>
-  <si>
-    <t>国金鑫悦经济新动能混合C</t>
-  </si>
-  <si>
-    <t>28.80</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>93.65</t>
-  </si>
-  <si>
-    <t>90.37</t>
-  </si>
-  <si>
-    <t>94.24</t>
-  </si>
-  <si>
-    <t>4.02</t>
-  </si>
-  <si>
-    <t>4.64</t>
-  </si>
-  <si>
-    <t>4.96</t>
-  </si>
-  <si>
-    <t>1.1578</t>
-  </si>
-  <si>
-    <t>0.0603</t>
-  </si>
-  <si>
-    <t>0.0273</t>
-  </si>
-  <si>
-    <t>0.0116</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,141 +446,261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1578</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300855-图南股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300855-图南股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +671,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -690,13 +711,369 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9877</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4926</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4071</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1846</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300855-图南股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300855-图南股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.61</v>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1067,13 +1110,575 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1559</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1559</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6051</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3401</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2778</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2517</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300855-图南股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300855-图南股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1609,7 +1610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,17 +1621,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1640,14 +1661,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.84</v>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6119</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1656,14 +1699,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.61</v>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5030</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1672,13 +1737,1313 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7539</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4723</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4455</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3652</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3625</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3134</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2695</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>66.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015073</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏复兴混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300855-图南股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300855-图南股份.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,205 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>110005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达积极成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.80</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1578</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.74</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010375</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国金鑫悦经济新动能混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.37</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0603</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.84</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000354</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长盛城镇化主题混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>8</v>
       </c>
+      <c r="D4" t="n">
+        <v>2.61</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010376</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国金鑫悦经济新动能混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.37</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -662,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001725</t>
+          <t>000031</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中国高端制造股票</t>
+          <t>华夏复兴混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>30.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.51</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9877</t>
+          <t>1.6119</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -751,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007639</t>
+          <t>001725</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+          <t>汇添富中国高端制造股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.89</t>
+          <t>24.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.00</t>
+          <t>80.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4926</t>
+          <t>1.5030</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -789,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000690</t>
+          <t>007639</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源大海洋战略经济灵活配置混合</t>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>13.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>67.50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4071</t>
+          <t>0.9368</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -827,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002746</t>
+          <t>007349</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富多策略定期开放灵活配置混合</t>
+          <t>华夏科技创新混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>16.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>71.43</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2822</t>
+          <t>0.7539</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -865,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002181</t>
+          <t>010518</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安大安全主题灵活配置混合</t>
+          <t>华夏先锋科技一年定期开放混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.67</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1846</t>
+          <t>0.4723</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -903,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011506</t>
+          <t>011184</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信高端装备股票型证券投资基金A</t>
+          <t>东方阿尔法招阳混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.26</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1121</t>
+          <t>0.4455</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -941,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501063</t>
+          <t>010106</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富悦享定期开放混合</t>
+          <t>华夏核心科技6个月定期开放混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.44</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0987</t>
+          <t>0.3652</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -979,36 +871,1024 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3625</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3134</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2695</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>66.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>011507</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>建信高端装备股票型证券投资基金C</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0465</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015073</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏复兴混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1661,36 +2541,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000031</t>
+          <t>001725</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏复兴混合</t>
+          <t>汇添富中国高端制造股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.88</t>
+          <t>21.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>82.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6119</t>
+          <t>0.9877</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1699,36 +2579,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001725</t>
+          <t>007639</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中国高端制造股票</t>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.01</t>
+          <t>15.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.79</t>
+          <t>78.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5030</t>
+          <t>0.4926</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1737,36 +2617,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007639</t>
+          <t>000690</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.94</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>67.50</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9368</t>
+          <t>0.4071</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1775,36 +2655,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007349</t>
+          <t>002746</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏科技创新混合A</t>
+          <t>汇添富多策略定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.57</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>71.43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7539</t>
+          <t>0.2822</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1813,36 +2693,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010518</t>
+          <t>002181</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏先锋科技一年定期开放混合A</t>
+          <t>华安大安全主题灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>89.67</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4723</t>
+          <t>0.1846</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1851,36 +2731,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011184</t>
+          <t>011506</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方阿尔法招阳混合A</t>
+          <t>建信高端装备股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>90.26</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4455</t>
+          <t>0.1121</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1889,36 +2769,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010106</t>
+          <t>501063</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏核心科技6个月定期开放混合A</t>
+          <t>汇添富悦享定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>86.44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3652</t>
+          <t>0.0987</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1927,1024 +2807,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000690</t>
+          <t>011507</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源大海洋战略经济灵活配置混合</t>
+          <t>建信高端装备股票型证券投资基金C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.01</t>
+          <t>90.26</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3625</t>
+          <t>0.0465</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010412</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇安均衡优选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3270</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005358</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3134</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002746</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇添富多策略定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>70.70</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2695</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>168601</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇安裕阳三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>99.95</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1804</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009874</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>九泰久睿量化股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.64</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1369</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>013618</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华安大安全主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.89</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1307</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>501063</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇添富悦享定期开放混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>66.40</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1254</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005634</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>汇安行业龙头混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1159</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010519</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华夏先锋科技一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1139</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002181</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华安大安全主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.89</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0871</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>011506</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>建信高端装备股票型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0845</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>000535</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>长盛航天海工装备灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>73.21</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0836</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010107</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华夏核心科技6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.87</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0649</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>007350</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华夏科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0537</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001897</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.43</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0417</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005359</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0391</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>011507</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>建信高端装备股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>004510</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>89.43</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>010120</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>九泰久福量化股票A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0212</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009043</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>九泰久信量化股票</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>90.17</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>015115</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>汇添富中国高端制造股票D</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>80.79</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>009317</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>金信核心竞争力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>88.37</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>011185</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>东方阿尔法招阳混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>015114</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>汇添富中国高端制造股票C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>80.79</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>015073</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华夏复兴混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>010121</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>九泰久福量化股票C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2958,96 +2850,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.74</v>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1578</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.84</v>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
-        <v>2.61</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.26</v>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300855-图南股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300855-图南股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>8.74</v>
+        <v>16.71</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>5.84</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.61</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.26</v>
       </c>
     </row>
@@ -549,6 +566,1848 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1823</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8214</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7903</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏复兴混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4138</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0253</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6389</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6262</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5208</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5017</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4504</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013962</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3772</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>470008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3694</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3579</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013963</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3135</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2932</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2882</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011949</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014950</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2312</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>62.85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信高端装备股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014951</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信高端装备股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015073</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏复兴混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014381</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1896,7 +3755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2484,7 +4343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2844,7 +4703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300855-图南股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300855-图南股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>16.71</v>
+        <v>22.33</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D3" t="n">
-        <v>8.74</v>
+        <v>16.71</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>5.84</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.61</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.26</v>
       </c>
     </row>
@@ -622,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501207</t>
+          <t>001475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏创新未来混合（LOF）</t>
+          <t>易方达国防军工混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.72</t>
+          <t>144.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1823</t>
+          <t>5.5829</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -660,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>015115</t>
+          <t>110005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中国高端制造股票D</t>
+          <t>易方达积极成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.58</t>
+          <t>67.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.58</t>
+          <t>92.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8214</t>
+          <t>2.4614</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -698,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001725</t>
+          <t>501207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中国高端制造股票A</t>
+          <t>华夏创新未来混合（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>47.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.58</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7903</t>
+          <t>2.0322</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -736,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000031</t>
+          <t>015115</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏复兴混合A</t>
+          <t>汇添富中国高端制造股票D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.25</t>
+          <t>24.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.23</t>
+          <t>84.04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4138</t>
+          <t>1.9192</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -774,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009566</t>
+          <t>001725</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇安泓阳三年持有期混合</t>
+          <t>汇添富中国高端制造股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16.02</t>
+          <t>23.35</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>84.04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0253</t>
+          <t>1.8143</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -812,32 +829,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007349</t>
+          <t>009566</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏科技创新混合A</t>
+          <t>汇安泓阳三年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.68</t>
+          <t>14.07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6389</t>
+          <t>1.2649</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -850,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007639</t>
+          <t>000031</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富竞争优势灵活配置混合</t>
+          <t>华夏复兴混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>25.12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.04</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.6262</t>
+          <t>1.1580</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -888,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002983</t>
+          <t>015945</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合A</t>
+          <t>易方达国防军工混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.81</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.6004</t>
+          <t>0.7740</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -926,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008960</t>
+          <t>007349</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合C</t>
+          <t>华夏科技创新混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>12.57</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>93.85</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.5208</t>
+          <t>0.5682</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -964,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011184</t>
+          <t>007639</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方阿尔法招阳混合A</t>
+          <t>汇添富竞争优势灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.08</t>
+          <t>67.71</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.5017</t>
+          <t>0.5151</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1002,36 +1019,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007355</t>
+          <t>010412</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合A</t>
+          <t>汇安均衡优选混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14.72</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>92.08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.4504</t>
+          <t>0.4438</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1040,36 +1057,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>013962</t>
+          <t>011184</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏创新视野一年持有混合A</t>
+          <t>东方阿尔法招阳混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.47</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88.70</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3772</t>
+          <t>0.3677</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1078,36 +1095,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>470008</t>
+          <t>013962</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇添富策略回报混合</t>
+          <t>华夏创新视野一年持有混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>88.49</t>
+          <t>93.22</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.3694</t>
+          <t>0.3292</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1116,36 +1133,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010412</t>
+          <t>002746</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>汇安均衡优选混合</t>
+          <t>汇添富多策略定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>68.73</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.3579</t>
+          <t>0.3017</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1154,32 +1171,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>013963</t>
+          <t>005634</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华夏创新视野一年持有混合C</t>
+          <t>汇安行业龙头混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>88.70</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.3262</t>
+          <t>0.2856</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1192,36 +1209,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>000690</t>
+          <t>013963</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>前海开源大海洋战略经济灵活配置混合</t>
+          <t>华夏创新视野一年持有混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>93.22</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.3135</t>
+          <t>0.2843</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1230,32 +1247,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005358</t>
+          <t>014950</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
+          <t>汇安润阳三年持有期混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>92.36</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.2932</t>
+          <t>0.2808</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1268,36 +1285,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010518</t>
+          <t>000690</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华夏先锋科技一年定期开放混合A</t>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>89.54</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.2888</t>
+          <t>0.2565</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1306,36 +1323,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002746</t>
+          <t>168601</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>汇添富多策略定期开放灵活配置混合</t>
+          <t>汇安裕阳三年定期开放混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>74.23</t>
+          <t>95.66</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.2882</t>
+          <t>0.2552</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1354,26 +1371,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>93.35</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.2788</t>
+          <t>0.2395</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1382,36 +1399,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>014144</t>
+          <t>006803</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>长信先进装备三个月持有混合A</t>
+          <t>嘉实互通精选股票</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>89.43</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.2493</t>
+          <t>0.2049</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1420,36 +1437,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>014950</t>
+          <t>580009</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>汇安润阳三年持有期混合A</t>
+          <t>东吴多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>90.46</t>
+          <t>93.35</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.2312</t>
+          <t>0.1640</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1458,36 +1475,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010106</t>
+          <t>501063</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华夏核心科技6个月定期开放混合A</t>
+          <t>汇添富悦享定期开放混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>81.38</t>
+          <t>69.94</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.2301</t>
+          <t>0.1401</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1496,36 +1513,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>168601</t>
+          <t>011506</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>汇安裕阳三年定期开放混合</t>
+          <t>建信高端装备股票A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>89.26</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.2207</t>
+          <t>0.1352</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1534,36 +1551,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>005634</t>
+          <t>013618</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>汇安行业龙头混合</t>
+          <t>华安大安全主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>92.02</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6.96</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.2130</t>
+          <t>0.0946</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1572,36 +1589,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>580009</t>
+          <t>001760</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>东吴多策略灵活配置混合</t>
+          <t>嘉实创新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>82.45</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.1592</t>
+          <t>0.0853</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1610,36 +1627,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>501063</t>
+          <t>002181</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>汇添富悦享定期开放混合</t>
+          <t>华安大安全主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>66.28</t>
+          <t>92.02</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.1342</t>
+          <t>0.0823</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1648,36 +1665,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>013618</t>
+          <t>011185</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华安大安全主题灵活配置混合C</t>
+          <t>东方阿尔法招阳混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>89.50</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.1061</t>
+          <t>0.0523</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1686,36 +1703,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>010519</t>
+          <t>007350</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华夏先锋科技一年定期开放混合C</t>
+          <t>华夏科技创新混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>89.54</t>
+          <t>93.85</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0911</t>
+          <t>0.0447</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1724,36 +1741,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>007356</t>
+          <t>013250</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合C</t>
+          <t>红土创新智能制造混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>90.41</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0774</t>
+          <t>0.0420</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1762,36 +1779,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>014145</t>
+          <t>014951</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>长信先进装备三个月持有混合C</t>
+          <t>汇安润阳三年持有期混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>92.36</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0668</t>
+          <t>0.0377</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1800,36 +1817,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>002181</t>
+          <t>011507</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华安大安全主题灵活配置混合A</t>
+          <t>建信高端装备股票C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>89.50</t>
+          <t>89.26</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0653</t>
+          <t>0.0317</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1838,36 +1855,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>000535</t>
+          <t>163110</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>长盛航天海工装备灵活配置混合</t>
+          <t>申万菱信量化小盘股票（LOF）A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>62.85</t>
+          <t>92.35</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0590</t>
+          <t>0.0291</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1876,36 +1893,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>011506</t>
+          <t>002703</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>建信高端装备股票A</t>
+          <t>长城久源灵活配置混合A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0548</t>
+          <t>0.0257</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1914,36 +1931,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>005359</t>
+          <t>015466</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
+          <t>太平中证1000指数增强A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0490</t>
+          <t>0.0064</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1952,36 +1969,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>007350</t>
+          <t>162107</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华夏科技创新混合C</t>
+          <t>金鹰先进制造股票（LOF）A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0481</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1990,36 +2007,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>000969</t>
+          <t>562520</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>前海开源大安全核心精选灵活配置混合</t>
+          <t>华夏中证智选1000成长创新策略ETF</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>91.57</t>
+          <t>96.24</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0455</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -2028,36 +2045,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>010107</t>
+          <t>006271</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华夏核心科技6个月定期开放混合C</t>
+          <t>汇安核心成长混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>81.38</t>
+          <t>83.80</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0407</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -2066,32 +2083,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>014951</t>
+          <t>015073</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>汇安润阳三年持有期混合C</t>
+          <t>华夏复兴混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>90.46</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2104,36 +2121,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>011507</t>
+          <t>014381</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>建信高端装备股票C</t>
+          <t>长城久源灵活配置混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0297</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -2142,36 +2159,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>002703</t>
+          <t>015114</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>长城久源灵活配置混合A</t>
+          <t>汇添富中国高端制造股票C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>84.04</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0249</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -2180,36 +2197,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>011185</t>
+          <t>006270</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>东方阿尔法招阳混合C</t>
+          <t>汇安核心成长混合A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>89.08</t>
+          <t>83.80</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -2218,36 +2235,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>006271</t>
+          <t>013479</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>汇安核心成长混合C</t>
+          <t>金鹰先进制造股票（LOF）C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -2256,36 +2273,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>015114</t>
+          <t>015467</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>汇添富中国高端制造股票C</t>
+          <t>太平中证1000指数增强C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>83.58</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2294,36 +2311,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>015073</t>
+          <t>519222</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>华夏复兴混合C</t>
+          <t>海富通欣益灵活配置混合A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>88.23</t>
+          <t>31.65</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -2332,36 +2349,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>006270</t>
+          <t>519221</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>汇安核心成长混合A</t>
+          <t>海富通欣益灵活配置混合C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>31.65</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2370,36 +2387,34 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>014381</t>
+          <t>013918</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>长城久源灵活配置混合C</t>
+          <t>申万菱信量化小盘股票（LOF）C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>92.35</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2408,6 +2423,1848 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1823</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8214</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7903</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏复兴混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4138</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0253</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6389</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6262</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5208</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5017</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4504</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013962</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3772</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>470008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3694</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3579</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013963</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3135</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2932</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2882</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011949</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014950</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2312</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>62.85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信高端装备股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014951</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信高端装备股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015073</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏复兴混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014381</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3755,7 +5612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4343,7 +6200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4703,7 +6560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
